--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/global.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/global.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,429 @@
   </si>
   <si>
     <t>英雄死亡复活时长，单位：秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英雄继承召唤师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性倍率</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +525,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -458,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -524,6 +955,105 @@
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="7">
+        <v>1007</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="7">
+        <v>1008</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="7">
+        <v>1009</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="7">
+        <v>1010</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="7">
+        <v>1011</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/global.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/global.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -479,6 +479,10 @@
       </rPr>
       <t>属性倍率</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗绳长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1054,6 +1058,17 @@
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
